--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,10 +519,8 @@
           <t>noafarouz@gmail.com</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0528325533</t>
-        </is>
+      <c r="D3" t="n">
+        <v>528325533</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -537,6 +535,148 @@
       <c r="G3" t="inlineStr">
         <is>
           <t>Jasminkoch2204!</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>rapha</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>bensoussan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>rapha144@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>522870121</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>מישאל+3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>rapha</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>noa</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>huss</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>noahuss185@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>523648301</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>שמואל+הנגיד+6</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>noahuss</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>lital</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>azulay</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>litalaz97@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>525550662</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>מחנה+יהודה+3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>lital</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1234567</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>danzi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>huss</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>danzi@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0525540098</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ישראל+זרחי+33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>danzi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>123456</t>
         </is>
       </c>
     </row>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,10 +659,8 @@
           <t>danzi@gmail.com</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0525540098</t>
-        </is>
+      <c r="D7" t="n">
+        <v>525540098</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -675,6 +673,57 @@
         </is>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>elisharich</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>roikoch</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>elifa</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>123456</t>
         </is>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,6 +729,40 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>reutshap</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>roiking</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>12345654321</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,87 +679,109 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>osnat</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>bensoussan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>osnatfarouz@gmail.com</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>523649650</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>מרדכי+אלקחי+61</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>elisharich</t>
+          <t>osnatfarouz</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>12345</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>eli</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>farouz</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>elifa@gmail.com</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>506256036</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>שלום+יהודה+16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>elifa</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>123456</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>roikoch</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sara</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fridler</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>saraa@gmail.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>637837722</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>מיצרי+טירן+29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>sarafrid</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>123456</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>elifa</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>reutshap</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>roiking</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>12345654321</t>
         </is>
       </c>
     </row>
